--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -90,14 +90,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>portray</t>
+      <t>portray_path</t>
     </r>
     <r>
       <rPr>
@@ -177,96 +170,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -275,6 +178,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,6 +207,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -292,6 +223,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -300,22 +284,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,19 +349,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,157 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,17 +552,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +611,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -646,13 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,7 +1143,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>序号</t>
   </si>
@@ -90,6 +90,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>portray_path</t>
     </r>
     <r>
@@ -117,25 +124,55 @@
     <t>征收丫鬟-7分身</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_char_NPC_1.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_char_NPC_1.png</t>
   </si>
   <si>
     <t>征收男仆-7分身</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_char_NPC_2.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_char_NPC_2.png</t>
   </si>
   <si>
     <t>征收嬷嬷-7分身</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\levy\levy_1_char_NPC_3.png</t>
+    <t>Assets\mnRes\Images\levy\levy_1_char_NPC_3.png</t>
   </si>
   <si>
     <t>主角1</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\myself\1.png</t>
+    <t>Assets\mnRes\Images\role\myself\1.png</t>
+  </si>
+  <si>
+    <t>知交1</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\friend_1.png</t>
+  </si>
+  <si>
+    <t>知交2</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\friend_2.png</t>
+  </si>
+  <si>
+    <t>知交3</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\friend_3.png</t>
+  </si>
+  <si>
+    <t>知交4</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\friend_4.png</t>
+  </si>
+  <si>
+    <t>知交5</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\friend_5.png</t>
   </si>
 </sst>
 </file>
@@ -143,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -171,29 +208,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +239,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +290,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -229,86 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +386,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,151 +536,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,17 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +632,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -635,6 +652,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,6 +675,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,13 +1177,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
@@ -1220,6 +1257,61 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>序号</t>
   </si>
@@ -145,34 +145,136 @@
     <t>Assets\mnRes\Images\role\myself\1.png</t>
   </si>
   <si>
-    <t>知交1</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\friend\friend_1.png</t>
-  </si>
-  <si>
-    <t>知交2</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\friend\friend_2.png</t>
-  </si>
-  <si>
-    <t>知交3</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\friend\friend_3.png</t>
-  </si>
-  <si>
-    <t>知交4</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\friend\friend_4.png</t>
-  </si>
-  <si>
-    <t>知交5</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\friend\friend_5.png</t>
+    <t>知交-李璨昭</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_1.png</t>
+  </si>
+  <si>
+    <t>知交-蔺飒(黑袍)</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_2.png</t>
+  </si>
+  <si>
+    <t>知交-蔺飒</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_3.png</t>
+  </si>
+  <si>
+    <t>知交-李润</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_4.png</t>
+  </si>
+  <si>
+    <t>知交-绿瑶(糖葫芦)</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_5.png</t>
+  </si>
+  <si>
+    <t>知交-绿瑶</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_6.png</t>
+  </si>
+  <si>
+    <t>知交-裴邈(撸猫)</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_7.png</t>
+  </si>
+  <si>
+    <t>知交-裴邈(白发)</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_8.png</t>
+  </si>
+  <si>
+    <t>知交-裴邈(黑发)</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\friend\char_friend_friend_9.png</t>
+  </si>
+  <si>
+    <t>NPC-乳娘</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_1.png</t>
+  </si>
+  <si>
+    <t>NPC-凶悍大娘</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_2.png</t>
+  </si>
+  <si>
+    <t>NPC-妩媚姨娘</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_3.png</t>
+  </si>
+  <si>
+    <t>NPC-6岁弟弟</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_4.png</t>
+  </si>
+  <si>
+    <t>NPC-败家嫡长子</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_5.png</t>
+  </si>
+  <si>
+    <t>NPC-女主青年父亲</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_6.png</t>
+  </si>
+  <si>
+    <t>NPC-娇气大姐</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_7.png</t>
+  </si>
+  <si>
+    <t>NPC-胆小二姐</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_8.png</t>
+  </si>
+  <si>
+    <t>NPC-丽质小姐</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_9.png</t>
+  </si>
+  <si>
+    <t>NPC-女主奶奶</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_10.png</t>
+  </si>
+  <si>
+    <t>NPC-女主孕母</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_11.png</t>
+  </si>
+  <si>
+    <t>NPC-女主爷爷</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_12.png</t>
+  </si>
+  <si>
+    <t>NPC-女主幼年</t>
+  </si>
+  <si>
+    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_13.png</t>
   </si>
 </sst>
 </file>
@@ -207,26 +309,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,6 +332,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -246,6 +379,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -253,30 +401,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,61 +438,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,13 +488,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,25 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,115 +626,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,65 +700,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +734,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +808,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,10 +1279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1312,6 +1414,193 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23400" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>立绘路径</t>
+  </si>
+  <si>
+    <t>头像路径</t>
   </si>
   <si>
     <r>
@@ -121,6 +124,31 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>head_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
     <t>征收丫鬟-7分身</t>
   </si>
   <si>
@@ -151,12 +179,18 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_1.png</t>
   </si>
   <si>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_4.png</t>
+  </si>
+  <si>
     <t>知交-蔺飒(黑袍)</t>
   </si>
   <si>
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_2.png</t>
   </si>
   <si>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_3.png</t>
+  </si>
+  <si>
     <t>知交-蔺飒</t>
   </si>
   <si>
@@ -169,6 +203,9 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_4.png</t>
   </si>
   <si>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_5.png</t>
+  </si>
+  <si>
     <t>知交-绿瑶(糖葫芦)</t>
   </si>
   <si>
@@ -181,6 +218,9 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_6.png</t>
   </si>
   <si>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_1.png</t>
+  </si>
+  <si>
     <t>知交-裴邈(撸猫)</t>
   </si>
   <si>
@@ -191,6 +231,9 @@
   </si>
   <si>
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_8.png</t>
+  </si>
+  <si>
+    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_2.png</t>
   </si>
   <si>
     <t>知交-裴邈(黑发)</t>
@@ -282,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -309,6 +352,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -316,11 +375,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,98 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +428,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -448,6 +461,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,181 +531,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,11 +743,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,60 +831,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -796,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,133 +851,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,23 +1320,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
     <col min="3" max="3" width="81.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="76.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1303,16 +1347,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1320,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1331,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1342,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1353,32 +1403,38 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1386,21 +1442,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1408,21 +1467,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1430,21 +1492,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1452,10 +1517,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1463,10 +1528,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1474,10 +1539,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1485,10 +1550,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1496,10 +1561,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1507,10 +1572,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1518,10 +1583,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1529,10 +1594,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1540,10 +1605,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1551,10 +1616,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1562,10 +1627,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1573,10 +1638,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1584,10 +1649,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1595,10 +1660,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="12465"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>序号</t>
   </si>
@@ -125,6 +125,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>head_path</t>
     </r>
     <r>
@@ -179,7 +186,7 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_1.png</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_4.png</t>
+    <t>Assets\mnRes\Images\role\head\char_friend_head_4.png</t>
   </si>
   <si>
     <t>知交-蔺飒(黑袍)</t>
@@ -188,7 +195,7 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_2.png</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_3.png</t>
+    <t>Assets\mnRes\Images\role\head\char_friend_head_3.png</t>
   </si>
   <si>
     <t>知交-蔺飒</t>
@@ -203,7 +210,7 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_4.png</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_5.png</t>
+    <t>Assets\mnRes\Images\role\head\char_friend_head_5.png</t>
   </si>
   <si>
     <t>知交-绿瑶(糖葫芦)</t>
@@ -218,7 +225,7 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_6.png</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_1.png</t>
+    <t>Assets\mnRes\Images\role\head\char_friend_head_1.png</t>
   </si>
   <si>
     <t>知交-裴邈(撸猫)</t>
@@ -233,7 +240,7 @@
     <t>Assets\mnRes\Images\role\friend\char_friend_friend_8.png</t>
   </si>
   <si>
-    <t>mnClient\Assets\mnRes\Images\role\head\char_friend_head_2.png</t>
+    <t>Assets\mnRes\Images\role\head\char_friend_head_2.png</t>
   </si>
   <si>
     <t>知交-裴邈(黑发)</t>
@@ -326,8 +333,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -352,6 +359,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -360,142 +503,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -531,6 +538,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -543,6 +592,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,19 +634,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,133 +694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +737,36 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,21 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -791,6 +813,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -805,32 +838,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,12 +1327,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1337,7 +1344,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>

--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -159,172 +159,172 @@
     <t>征收丫鬟-7分身</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_char_NPC_1.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_char_NPC_1.png</t>
   </si>
   <si>
     <t>征收男仆-7分身</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_char_NPC_2.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_char_NPC_2.png</t>
   </si>
   <si>
     <t>征收嬷嬷-7分身</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\levy\levy_1_char_NPC_3.png</t>
+    <t>Assets/mnRes/Images/levy/levy_1_char_NPC_3.png</t>
   </si>
   <si>
     <t>主角1</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\myself\1.png</t>
+    <t>Assets/mnRes/Images/role/myself/1.png</t>
   </si>
   <si>
     <t>知交-李璨昭</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_1.png</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\head\char_friend_head_4.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_1.png</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/head/char_friend_head_4.png</t>
   </si>
   <si>
     <t>知交-蔺飒(黑袍)</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_2.png</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\head\char_friend_head_3.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_2.png</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/head/char_friend_head_3.png</t>
   </si>
   <si>
     <t>知交-蔺飒</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_3.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_3.png</t>
   </si>
   <si>
     <t>知交-李润</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_4.png</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\head\char_friend_head_5.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_4.png</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/head/char_friend_head_5.png</t>
   </si>
   <si>
     <t>知交-绿瑶(糖葫芦)</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_5.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_5.png</t>
   </si>
   <si>
     <t>知交-绿瑶</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_6.png</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\head\char_friend_head_1.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_6.png</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/head/char_friend_head_1.png</t>
   </si>
   <si>
     <t>知交-裴邈(撸猫)</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_7.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_7.png</t>
   </si>
   <si>
     <t>知交-裴邈(白发)</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_8.png</t>
-  </si>
-  <si>
-    <t>Assets\mnRes\Images\role\head\char_friend_head_2.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_8.png</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/role/head/char_friend_head_2.png</t>
   </si>
   <si>
     <t>知交-裴邈(黑发)</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\friend\char_friend_friend_9.png</t>
+    <t>Assets/mnRes/Images/role/friend/char_friend_friend_9.png</t>
   </si>
   <si>
     <t>NPC-乳娘</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_1.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_1.png</t>
   </si>
   <si>
     <t>NPC-凶悍大娘</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_2.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_2.png</t>
   </si>
   <si>
     <t>NPC-妩媚姨娘</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_3.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_3.png</t>
   </si>
   <si>
     <t>NPC-6岁弟弟</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_4.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_4.png</t>
   </si>
   <si>
     <t>NPC-败家嫡长子</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_5.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_5.png</t>
   </si>
   <si>
     <t>NPC-女主青年父亲</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_6.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_6.png</t>
   </si>
   <si>
     <t>NPC-娇气大姐</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_7.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_7.png</t>
   </si>
   <si>
     <t>NPC-胆小二姐</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_8.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_8.png</t>
   </si>
   <si>
     <t>NPC-丽质小姐</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_9.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_9.png</t>
   </si>
   <si>
     <t>NPC-女主奶奶</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_10.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_10.png</t>
   </si>
   <si>
     <t>NPC-女主孕母</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_11.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_11.png</t>
   </si>
   <si>
     <t>NPC-女主爷爷</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_12.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_12.png</t>
   </si>
   <si>
     <t>NPC-女主幼年</t>
   </si>
   <si>
-    <t>Assets\mnRes\Images\role\npc\scene_char_NPC_13.png</t>
+    <t>Assets/mnRes/Images/role/npc/scene_char_NPC_13.png</t>
   </si>
 </sst>
 </file>
@@ -332,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -360,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,44 +368,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,31 +382,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,6 +418,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,31 +435,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,6 +449,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -538,181 +538,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,45 +737,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,11 +765,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +787,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,6 +823,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -846,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/common/RolePortray.xlsx
+++ b/common/RolePortray.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="RolePortray" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>立绘路径</t>
-  </si>
-  <si>
-    <t>头像路径</t>
   </si>
   <si>
     <r>
@@ -124,38 +121,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>head_path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>string</t>
-    </r>
-  </si>
-  <si>
     <t>征收丫鬟-7分身</t>
   </si>
   <si>
@@ -186,18 +151,12 @@
     <t>Assets/mnRes/Images/role/friend/char_friend_friend_1.png</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/role/head/char_friend_head_4.png</t>
-  </si>
-  <si>
     <t>知交-蔺飒(黑袍)</t>
   </si>
   <si>
     <t>Assets/mnRes/Images/role/friend/char_friend_friend_2.png</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/role/head/char_friend_head_3.png</t>
-  </si>
-  <si>
     <t>知交-蔺飒</t>
   </si>
   <si>
@@ -210,9 +169,6 @@
     <t>Assets/mnRes/Images/role/friend/char_friend_friend_4.png</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/role/head/char_friend_head_5.png</t>
-  </si>
-  <si>
     <t>知交-绿瑶(糖葫芦)</t>
   </si>
   <si>
@@ -225,9 +181,6 @@
     <t>Assets/mnRes/Images/role/friend/char_friend_friend_6.png</t>
   </si>
   <si>
-    <t>Assets/mnRes/Images/role/head/char_friend_head_1.png</t>
-  </si>
-  <si>
     <t>知交-裴邈(撸猫)</t>
   </si>
   <si>
@@ -238,9 +191,6 @@
   </si>
   <si>
     <t>Assets/mnRes/Images/role/friend/char_friend_friend_8.png</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/role/head/char_friend_head_2.png</t>
   </si>
   <si>
     <t>知交-裴邈(黑发)</t>
@@ -332,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -360,6 +310,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -368,7 +399,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,34 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -418,8 +429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,14 +442,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,60 +453,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -538,49 +488,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,127 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,6 +691,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -756,11 +715,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,26 +741,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,17 +769,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,10 +796,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,19 +808,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,112 +829,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,24 +1277,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
     <col min="3" max="3" width="81.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" ht="17.25" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1354,22 +1303,16 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1377,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1388,10 +1331,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1399,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1410,38 +1353,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1449,24 +1386,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1474,24 +1408,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1499,24 +1430,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1524,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1535,10 +1463,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1546,10 +1474,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1557,10 +1485,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1568,10 +1496,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1579,10 +1507,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1590,10 +1518,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1601,10 +1529,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1612,10 +1540,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1623,10 +1551,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1634,10 +1562,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1645,10 +1573,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1656,10 +1584,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1667,10 +1595,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
